--- a/template/bicu_v.xlsx
+++ b/template/bicu_v.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Program\excel_worker\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\ExcelWorker\program\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E539DA6-44B0-4C43-A1E2-F806D8227E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6C2F2A-0FC2-4674-AB30-8996EF956D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИКУ" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">БИКУ!$A$7:$AC$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">БИКУ!$A$7:$AC$7</definedName>
   </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -157,9 +157,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="00"/>
-  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -216,7 +213,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -333,15 +330,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -352,7 +340,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -372,43 +360,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -418,6 +370,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -447,14 +414,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -508,14 +475,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -569,14 +536,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -691,8 +658,8 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="280708"/>
     <xdr:sp macro="" textlink="">
@@ -747,8 +714,8 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="280708"/>
     <xdr:sp macro="" textlink="">
@@ -803,8 +770,8 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="280708"/>
     <xdr:sp macro="" textlink="">
@@ -1121,11 +1088,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC24"/>
+  <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1149,133 +1116,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="17" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="14" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="14" t="s">
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="W1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="X1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="17" t="s">
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AB1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AC1" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="3" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="14" t="s">
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="O2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17" t="s">
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="S2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="17" t="s">
+      <c r="T2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="14" t="s">
+      <c r="U2" s="13"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="Y2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="Z2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
     </row>
     <row r="3" spans="1:29" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="16"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="12"/>
       <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1285,31 +1252,31 @@
       <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
       <c r="P3" s="4" t="s">
         <v>30</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
     </row>
     <row r="4" spans="1:29" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1331,29 +1298,29 @@
       <c r="O4" s="5"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
-      <c r="R4" s="4">
-        <f>SUMIFS(R8:R49,$E8:$E49,"Прием электроэнергии")</f>
-        <v>0</v>
-      </c>
-      <c r="S4" s="4">
-        <f t="shared" ref="S4:W4" si="0">SUMIFS(S8:S49,$E8:$E49,"Прием электроэнергии")</f>
-        <v>0</v>
-      </c>
-      <c r="T4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="R4" s="4" t="e">
+        <f>SUMIFS(#REF!,#REF!,"Прием электроэнергии")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S4" s="4" t="e">
+        <f>SUMIFS(#REF!,#REF!,"Прием электроэнергии")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T4" s="4" t="e">
+        <f>SUMIFS(#REF!,#REF!,"Прием электроэнергии")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="U4" s="4" t="e">
+        <f>SUMIFS(#REF!,#REF!,"Прием электроэнергии")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V4" s="4" t="e">
+        <f>SUMIFS(#REF!,#REF!,"Прием электроэнергии")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W4" s="4" t="e">
+        <f>SUMIFS(#REF!,#REF!,"Прием электроэнергии")</f>
+        <v>#REF!</v>
       </c>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
@@ -1382,29 +1349,29 @@
       <c r="O5" s="5"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
-      <c r="R5" s="4">
-        <f t="shared" ref="R5:W5" si="1">SUMIFS(R8:R49,$E8:$E49,"Передача электроэнергии")</f>
-        <v>0</v>
-      </c>
-      <c r="S5" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T5" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U5" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V5" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W5" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="R5" s="4" t="e">
+        <f>SUMIFS(#REF!,#REF!,"Передача электроэнергии")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S5" s="4" t="e">
+        <f>SUMIFS(#REF!,#REF!,"Передача электроэнергии")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T5" s="4" t="e">
+        <f>SUMIFS(#REF!,#REF!,"Передача электроэнергии")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="U5" s="4" t="e">
+        <f>SUMIFS(#REF!,#REF!,"Передача электроэнергии")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V5" s="4" t="e">
+        <f>SUMIFS(#REF!,#REF!,"Передача электроэнергии")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="W5" s="4" t="e">
+        <f>SUMIFS(#REF!,#REF!,"Передача электроэнергии")</f>
+        <v>#REF!</v>
       </c>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
@@ -1433,29 +1400,29 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
-      <c r="R6" s="4">
-        <f t="shared" ref="R6:W6" si="2">R4-R5</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T6" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U6" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W6" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="R6" s="4" t="e">
+        <f t="shared" ref="R6:W6" si="0">R4-R5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S6" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="T6" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="U6" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="V6" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="W6" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
       </c>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
@@ -1553,184 +1520,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="N9" s="8"/>
-      <c r="U9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="N10" s="8"/>
-      <c r="U10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="N11" s="8"/>
-      <c r="U11" s="9"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="N12" s="8"/>
-      <c r="U12" s="9"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="N13" s="8"/>
-      <c r="U13" s="9"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="N14" s="8"/>
-      <c r="U14" s="9"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="N15" s="8"/>
-      <c r="U15" s="9"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="N16" s="8"/>
-      <c r="U16" s="9"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-    </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-      <c r="N17" s="8"/>
-      <c r="U17" s="9"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-    </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="N18" s="8"/>
-      <c r="U18" s="9"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-    </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="N19" s="8"/>
-      <c r="U19" s="9"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-    </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="N20" s="8"/>
-      <c r="U20" s="9"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
-    </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
-      <c r="N21" s="8"/>
-      <c r="U21" s="9"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-    </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
-      <c r="N22" s="8"/>
-      <c r="U22" s="9"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
-    </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B23" s="7"/>
-      <c r="N23" s="10"/>
-      <c r="U23" s="9"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
-    </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
-      <c r="N24" s="10"/>
-      <c r="U24" s="9"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A7:AC24" xr:uid="{FE645BF4-5379-49C4-94D6-7059782798B2}"/>
+  <autoFilter ref="A7:AC7" xr:uid="{FE645BF4-5379-49C4-94D6-7059782798B2}"/>
   <mergeCells count="30">
-    <mergeCell ref="AA1:AA3"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
     <mergeCell ref="AC1:AC3"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="I2:I3"/>
@@ -1747,6 +1539,20 @@
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="Y2:Y3"/>
     <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="L1:T1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/bicu_v.xlsx
+++ b/template/bicu_v.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\ExcelWorker\program\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6C2F2A-0FC2-4674-AB30-8996EF956D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1602F63C-DA84-4957-9FB8-5FBE1568678E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="БИКУ" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">БИКУ!$A$7:$AC$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">БИКУ!$A$7:$AB$7</definedName>
   </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>№</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>Процент потерь электроэнергии в сетях</t>
-  </si>
-  <si>
-    <t>Индекс точки присоединения</t>
   </si>
   <si>
     <t>Постоянные потери электроэнергии, кВт*ч</t>
@@ -360,7 +357,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -370,21 +382,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1088,11 +1085,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="AC1" sqref="AC1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1115,134 +1112,130 @@
     <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:28" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" s="9" t="s">
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" s="3" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="8"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="8"/>
     </row>
-    <row r="2" spans="1:29" s="3" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" s="13"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z2" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-    </row>
-    <row r="3" spans="1:29" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="12"/>
+    <row r="3" spans="1:28" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1252,35 +1245,34 @@
       <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
       <c r="P3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="9"/>
     </row>
-    <row r="4" spans="1:29" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1327,11 +1319,10 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
     </row>
-    <row r="5" spans="1:29" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1378,11 +1369,10 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
     </row>
-    <row r="6" spans="1:29" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" s="3" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1429,9 +1419,8 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -1516,14 +1505,24 @@
       <c r="AB7" s="6">
         <v>28</v>
       </c>
-      <c r="AC7" s="6">
-        <v>29</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:AC7" xr:uid="{FE645BF4-5379-49C4-94D6-7059782798B2}"/>
-  <mergeCells count="30">
-    <mergeCell ref="AC1:AC3"/>
+  <autoFilter ref="A7:AB7" xr:uid="{FE645BF4-5379-49C4-94D6-7059782798B2}"/>
+  <mergeCells count="29">
+    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="F2:H2"/>
@@ -1539,20 +1538,6 @@
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="Y2:Y3"/>
     <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="AA1:AA3"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="L1:T1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
